--- a/biology/Zoologie/Andrena_suerinensis/Andrena_suerinensis.xlsx
+++ b/biology/Zoologie/Andrena_suerinensis/Andrena_suerinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Andrena suerinensis est une espèce d'insectes hyménoptères de la famille des Andrenidae. Cette abeille est présente en Europe, dans les zones tempérées et méridionales des côtes de la mer baltique à l’Ukraine[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Andrena suerinensis est une espèce d'insectes hyménoptères de la famille des Andrenidae. Cette abeille est présente en Europe, dans les zones tempérées et méridionales des côtes de la mer baltique à l’Ukraine.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est univoltine. Elle est visible entre mi-mai à mi-juillet, dans les habitats remaniés (sablières, pentes de loess laissées à nu). Elle collecte le pollen pour ses larves sur les brassicassées (Raphanus raphanistrum, Sinapis arvensis, Sisymbrium sp.). Elle construit son nid dans des terrains dégagés sableux ou sablonneux.
 </t>
@@ -568,7 +584,9 @@
           <t>Parasites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les nids sont parasités par Nomada calimorpha et probablement Nomada fulvicornis, des abeilles coucous cleptoparasites. Il arrive que les adultes soient eux aussi parasités.
 </t>
@@ -599,7 +617,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom spécifique, composé de suerin et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, Schwerin la capitale du Land de Mecklembourg-Poméranie-Occidentale. 
 </t>
@@ -630,7 +650,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(de + la) H. Friese, « Eine neue Andrenen-Art », Entomologische Nachrichten, Putbus et Berlin, Inconnu, inconnu, inconnu et inconnu, vol. 10, no 20,‎ 1884, p. 308-309 (OCLC 5844710, lire en ligne)</t>
         </is>
